--- a/src/test/resources/data/testscript.xlsx
+++ b/src/test/resources/data/testscript.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athar\eclipse-workspace\Project\adivaclm\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuraag\eclipse-workspace\mvncrmzy2\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16801DD-37A3-4FDB-A12B-352099C64378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF0B753-C995-423E-878E-E6C236A53DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{638AE6B3-7633-44EF-ACBB-854676E13A2E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Sl No</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>tatap</t>
+  </si>
+  <si>
+    <t>birla</t>
+  </si>
+  <si>
+    <t>ananya</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>adani</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56439C18-FB72-42CC-A1D7-E6D9F6A6B61A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,6 +1139,28 @@
       </c>
       <c r="C4" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
